--- a/data/trans_bre/P71_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Dificultad-trans_bre.xlsx
@@ -897,7 +897,7 @@
         <v>0.06613137141171703</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1772261793835979</v>
+        <v>0.177226179383598</v>
       </c>
     </row>
     <row r="17">
@@ -908,28 +908,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.658270147688167</v>
+        <v>7.684382716259795</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.218875529803652</v>
+        <v>-1.292967116135823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.02391273112406396</v>
+        <v>-0.3261652370923291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.710933553658449</v>
+        <v>0.8135540443575685</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4001131571220857</v>
+        <v>0.3977147870549863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.03870801608990657</v>
+        <v>-0.04067759254359084</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.0006768718254550332</v>
+        <v>-0.009888458119441132</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.04086100387783726</v>
+        <v>0.05409794352210361</v>
       </c>
     </row>
     <row r="18">
@@ -940,28 +940,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.81764707740943</v>
+        <v>11.7183776674332</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.123786408823855</v>
+        <v>3.304406262920182</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.585238471692598</v>
+        <v>4.471856321329804</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.220345012012261</v>
+        <v>4.273471390601551</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6882042291250831</v>
+        <v>0.6816929228650506</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1057061373469999</v>
+        <v>0.1103208613115892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.142961997443364</v>
+        <v>0.1357796725191694</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3155294296187593</v>
+        <v>0.3252148457491223</v>
       </c>
     </row>
     <row r="19">
